--- a/data/input/test_scripts_1/headers.xlsx
+++ b/data/input/test_scripts_1/headers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\workspace\modules\data_curation\data\input\test_scripts_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EA0AA3-3C86-4E4C-836E-DA8A06CD843D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAB1907-74D0-4A91-8137-F4C2F2A6BD4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{FDFEAA3D-AE5F-49CC-AFDB-5DB6900FEE8A}"/>
+    <workbookView xWindow="4100" yWindow="3130" windowWidth="16920" windowHeight="10540" xr2:uid="{FDFEAA3D-AE5F-49CC-AFDB-5DB6900FEE8A}"/>
   </bookViews>
   <sheets>
     <sheet name="A 1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Number</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lng</t>
   </si>
 </sst>
 </file>
@@ -428,15 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EB706D-E9C0-4891-8DF0-D666E4238736}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -452,8 +458,14 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -469,13 +481,19 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -487,15 +505,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3352BB53-ED04-4B7B-B249-A435A23CC14A}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -516,6 +534,12 @@
       </c>
       <c r="G1" t="s">
         <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
